--- a/Rleased/BOM/H09R9.xlsx
+++ b/Rleased/BOM/H09R9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HEXABITZ\Modules\Hardware\Modules Hardware Design\H09R9x-Hardware\Rleased\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B5E827-2083-4BD2-BDBB-BAD8C3E0501A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783A467F-DB00-4C4A-9056-AD32EB929162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2568" yWindow="1884" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H09R9" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
   <si>
     <t>Description</t>
   </si>
@@ -73,21 +73,12 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>KEMET</t>
-  </si>
-  <si>
     <t>Murata</t>
   </si>
   <si>
     <t>Panasonic</t>
   </si>
   <si>
-    <t>10TPU4R7MSI</t>
-  </si>
-  <si>
-    <t>https://octopart.com/10tpu4r7msi-panasonic-29487748?r=sp</t>
-  </si>
-  <si>
     <t>Vishay</t>
   </si>
   <si>
@@ -166,9 +157,6 @@
     <t>https://octopart.com/cstne8m00g550000r0-murata-91406934?r=sp</t>
   </si>
   <si>
-    <t>CAP TANT 4.7 UF 10V 20% 0805</t>
-  </si>
-  <si>
     <t>CAP CER 1 UF 16V X7R 0805</t>
   </si>
   <si>
@@ -181,9 +169,6 @@
     <t>Hexabitz Modules</t>
   </si>
   <si>
-    <t>C0603C104K8RACTU</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
@@ -214,12 +199,6 @@
     <t>https://octopart.com/rc0603fr-0710kl-yageo-40025538?r=sp</t>
   </si>
   <si>
-    <t>CAP CER 0.1 UF 10V 10% X7R 0603</t>
-  </si>
-  <si>
-    <t>https://octopart.com/c0603c104k8ractu-kemet-145075?r=sp</t>
-  </si>
-  <si>
     <t>https://octopart.com/vlms1300-gs08-vishay-21709201?r=sp</t>
   </si>
   <si>
@@ -263,6 +242,30 @@
   </si>
   <si>
     <t>https://octopart.com/g-tpmo-101-te+connectivity-76900424?r=sp</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 25V X7R 0603</t>
+  </si>
+  <si>
+    <t>CGA3E2X8R1E104K080AE</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>https://octopart.com/cga3e2x8r1e104k080ae-tdk-68305753?r=sp</t>
+  </si>
+  <si>
+    <t>CAP CER 4.7UF 16V X7R 0805</t>
+  </si>
+  <si>
+    <t>C0805C475K4RACTU</t>
+  </si>
+  <si>
+    <t>KEMET [VA]</t>
+  </si>
+  <si>
+    <t>https://octopart.com/c0805c475k4ractu-kemet-22859922?r=sp</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1389,7 @@
   <dimension ref="A2:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1442,7 +1445,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
@@ -1459,7 +1462,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>14</v>
@@ -1491,19 +1494,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
@@ -1511,19 +1514,19 @@
     </row>
     <row r="10" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="F10" s="16">
         <v>1</v>
@@ -1531,19 +1534,19 @@
     </row>
     <row r="11" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F11" s="16">
         <v>1</v>
@@ -1551,19 +1554,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F12" s="16">
         <v>1</v>
@@ -1571,19 +1574,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F13" s="16">
         <v>3</v>
@@ -1591,19 +1594,19 @@
     </row>
     <row r="14" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>51</v>
-      </c>
       <c r="D14" s="14" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F14" s="16">
         <v>5</v>
@@ -1611,19 +1614,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F15" s="16">
         <v>1</v>
@@ -1631,19 +1634,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="F16" s="16">
         <v>3</v>
@@ -1651,19 +1654,19 @@
     </row>
     <row r="17" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="D17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>35</v>
       </c>
       <c r="F17" s="16">
         <v>1</v>
@@ -1671,19 +1674,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F18" s="16">
         <v>1</v>
@@ -1691,19 +1694,19 @@
     </row>
     <row r="19" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="F19" s="16">
         <v>1</v>
@@ -1711,19 +1714,19 @@
     </row>
     <row r="20" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F20" s="16">
         <v>1</v>
@@ -1731,19 +1734,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>42</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>45</v>
       </c>
       <c r="F21" s="16">
         <v>1</v>
@@ -1760,11 +1763,11 @@
     <hyperlink ref="E10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="E11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="E13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="E16" r:id="rId7" xr:uid="{CA2BC9B7-037F-4782-ACB8-2D8F29264691}"/>
-    <hyperlink ref="E18" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E17" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E18" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E17" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E14" r:id="rId8" display="https://octopart.com/c0603c104k8ractu-kemet-145075?r=sp" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E16" r:id="rId9" display="https://octopart.com/10tpu4r7msi-panasonic-29487748?r=sp" xr:uid="{CA2BC9B7-037F-4782-ACB8-2D8F29264691}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId10"/>
